--- a/biology/Zoologie/Eudistylia_polymorpha/Eudistylia_polymorpha.xlsx
+++ b/biology/Zoologie/Eudistylia_polymorpha/Eudistylia_polymorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudistylia polymorpha est une espèce de vers tubicoles marins polychètes de la famille des Sabellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans les eaux au large de la Californie et dans la baie de Monterey[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans les eaux au large de la Californie et dans la baie de Monterey.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale[3], l'auteur indique que la taille moyenne des spécimens (hors branchies) est de 95 mm pour un diamètre maximal de 6 mm (respectivement 150 mm et 12 mm pour le plus grand spécimen[3]). 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique que la taille moyenne des spécimens (hors branchies) est de 95 mm pour un diamètre maximal de 6 mm (respectivement 150 mm et 12 mm pour le plus grand spécimen). 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du grec ancien πολύμορφος, polúmorphos, « multiforme », lui a été donné en référence à la grande variabilité d'aspect et de coloration de ses branchies[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du grec ancien πολύμορφος, polúmorphos, « multiforme », lui a été donné en référence à la grande variabilité d'aspect et de coloration de ses branchies. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Johnson, 1901 : The Polychaeta of the Puget Sound region. Proceedings of the Boston Society for Natural History, vol. 29, n. 18, pp. 381-437 (texte intégral) (en).</t>
         </is>
